--- a/template Excel/MKT/Leads.xlsx
+++ b/template Excel/MKT/Leads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\MKT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E941537C-7FC4-4D3F-B88A-E95B56EE8AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131B65E0-DC10-452A-9CB5-35D1941A9524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{37B37724-5899-41C8-BAB9-439CE777DFB8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
   <si>
     <t>LeadId</t>
   </si>
@@ -297,9 +297,6 @@
   </si>
   <si>
     <t>mith@example.com</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
 </sst>
 </file>
@@ -701,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86CF5BF3-20CF-4993-9AAC-955D1BA524C0}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="A22" sqref="A22:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,7 +1095,7 @@
         <v>45483</v>
       </c>
       <c r="I11" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>31</v>
@@ -1133,7 +1130,7 @@
         <v>45484</v>
       </c>
       <c r="I12" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>16</v>
@@ -1168,7 +1165,7 @@
         <v>45485</v>
       </c>
       <c r="I13" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>21</v>
@@ -1203,7 +1200,7 @@
         <v>45486</v>
       </c>
       <c r="I14" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>26</v>
@@ -1238,7 +1235,7 @@
         <v>45487</v>
       </c>
       <c r="I15" s="2">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>31</v>
@@ -1273,7 +1270,7 @@
         <v>45488</v>
       </c>
       <c r="I16" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>16</v>
@@ -1282,7 +1279,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1308,7 +1305,7 @@
         <v>45489</v>
       </c>
       <c r="I17" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>21</v>
@@ -1317,7 +1314,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1343,7 +1340,7 @@
         <v>45490</v>
       </c>
       <c r="I18" s="2">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>26</v>
@@ -1352,7 +1349,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1378,7 +1375,7 @@
         <v>45491</v>
       </c>
       <c r="I19" s="2">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>31</v>
@@ -1387,7 +1384,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1413,7 +1410,7 @@
         <v>45492</v>
       </c>
       <c r="I20" s="2">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>16</v>
@@ -1422,7 +1419,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1448,18 +1445,13 @@
         <v>45493</v>
       </c>
       <c r="I21" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K21" s="2">
         <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L28" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/template Excel/MKT/Leads.xlsx
+++ b/template Excel/MKT/Leads.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\MKT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131B65E0-DC10-452A-9CB5-35D1941A9524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D065C8FF-C206-4121-AF35-A0357CF7F4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{37B37724-5899-41C8-BAB9-439CE777DFB8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{37B37724-5899-41C8-BAB9-439CE777DFB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
   <si>
-    <t>LeadId</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -62,241 +59,244 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>123 Elm St, City A</t>
+  </si>
+  <si>
+    <t>123-456-7890</t>
+  </si>
+  <si>
+    <t>johndoe@example.com</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>New Lead</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>456 Oak St, City B</t>
+  </si>
+  <si>
+    <t>234-567-8901</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Contacted</t>
+  </si>
+  <si>
+    <t>Mike Johnson</t>
+  </si>
+  <si>
+    <t>789 Pine St, City C</t>
+  </si>
+  <si>
+    <t>345-678-9012</t>
+  </si>
+  <si>
+    <t>mikej@example.com</t>
+  </si>
+  <si>
+    <t>Interested</t>
+  </si>
+  <si>
+    <t>Emily Davis</t>
+  </si>
+  <si>
+    <t>321 Birch St, City D</t>
+  </si>
+  <si>
+    <t>456-789-0123</t>
+  </si>
+  <si>
+    <t>emilyd@example.com</t>
+  </si>
+  <si>
+    <t>Not Interested</t>
+  </si>
+  <si>
+    <t>David Wilson</t>
+  </si>
+  <si>
+    <t>654 Cedar St, City E</t>
+  </si>
+  <si>
+    <t>567-890-1234</t>
+  </si>
+  <si>
+    <t>davidw@example.com</t>
+  </si>
+  <si>
+    <t>Sarah Brown</t>
+  </si>
+  <si>
+    <t>987 Maple St, City F</t>
+  </si>
+  <si>
+    <t>678-901-2345</t>
+  </si>
+  <si>
+    <t>sarahb@example.com</t>
+  </si>
+  <si>
+    <t>Robert Garcia</t>
+  </si>
+  <si>
+    <t>135 Willow St, City G</t>
+  </si>
+  <si>
+    <t>789-012-3456</t>
+  </si>
+  <si>
+    <t>robertg@example.com</t>
+  </si>
+  <si>
+    <t>Laura Martinez</t>
+  </si>
+  <si>
+    <t>246 Aspen St, City H</t>
+  </si>
+  <si>
+    <t>890-123-4567</t>
+  </si>
+  <si>
+    <t>lauram@example.com</t>
+  </si>
+  <si>
+    <t>James Rodriguez</t>
+  </si>
+  <si>
+    <t>357 Redwood St, City I</t>
+  </si>
+  <si>
+    <t>901-234-5678</t>
+  </si>
+  <si>
+    <t>jamesr@example.com</t>
+  </si>
+  <si>
+    <t>Mary Hernandez</t>
+  </si>
+  <si>
+    <t>468 Sycamore St, City J</t>
+  </si>
+  <si>
+    <t>012-345-6789</t>
+  </si>
+  <si>
+    <t>maryh@example.com</t>
+  </si>
+  <si>
+    <t>Daniel Lee</t>
+  </si>
+  <si>
+    <t>579 Fir St, City K</t>
+  </si>
+  <si>
+    <t>daniell@example.com</t>
+  </si>
+  <si>
+    <t>Lisa Clark</t>
+  </si>
+  <si>
+    <t>680 Spruce St, City L</t>
+  </si>
+  <si>
+    <t>lisac@example.com</t>
+  </si>
+  <si>
+    <t>Mark Lewis</t>
+  </si>
+  <si>
+    <t>791 Walnut St, City M</t>
+  </si>
+  <si>
+    <t>markl@example.com</t>
+  </si>
+  <si>
+    <t>Karen Walker</t>
+  </si>
+  <si>
+    <t>902 Palm St, City N</t>
+  </si>
+  <si>
+    <t>karenw@example.com</t>
+  </si>
+  <si>
+    <t>Paul Young</t>
+  </si>
+  <si>
+    <t>103 Cypress St, City O</t>
+  </si>
+  <si>
+    <t>pauly@example.com</t>
+  </si>
+  <si>
+    <t>Linda King</t>
+  </si>
+  <si>
+    <t>214 Beech St, City P</t>
+  </si>
+  <si>
+    <t>lindak@example.com</t>
+  </si>
+  <si>
+    <t>Kevin Wright</t>
+  </si>
+  <si>
+    <t>325 Poplar St, City Q</t>
+  </si>
+  <si>
+    <t>kevinw@example.com</t>
+  </si>
+  <si>
+    <t>Donna Scott</t>
+  </si>
+  <si>
+    <t>436 Alder St, City R</t>
+  </si>
+  <si>
+    <t>donnas@example.com</t>
+  </si>
+  <si>
+    <t>Brian Adams</t>
+  </si>
+  <si>
+    <t>547 Dogwood St, City S</t>
+  </si>
+  <si>
+    <t>briana@example.com</t>
+  </si>
+  <si>
+    <t>Nancy Perez</t>
+  </si>
+  <si>
+    <t>658 Elm St, City T</t>
+  </si>
+  <si>
+    <t>nancyp@example.com</t>
+  </si>
+  <si>
+    <t>mith@example.com</t>
+  </si>
+  <si>
+    <t>LeadsId</t>
+  </si>
+  <si>
     <t>CampaignId</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>123 Elm St, City A</t>
-  </si>
-  <si>
-    <t>123-456-7890</t>
-  </si>
-  <si>
-    <t>johndoe@example.com</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>New Lead</t>
-  </si>
-  <si>
-    <t>Jane Smith</t>
-  </si>
-  <si>
-    <t>456 Oak St, City B</t>
-  </si>
-  <si>
-    <t>234-567-8901</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Contacted</t>
-  </si>
-  <si>
-    <t>Mike Johnson</t>
-  </si>
-  <si>
-    <t>789 Pine St, City C</t>
-  </si>
-  <si>
-    <t>345-678-9012</t>
-  </si>
-  <si>
-    <t>mikej@example.com</t>
-  </si>
-  <si>
-    <t>Interested</t>
-  </si>
-  <si>
-    <t>Emily Davis</t>
-  </si>
-  <si>
-    <t>321 Birch St, City D</t>
-  </si>
-  <si>
-    <t>456-789-0123</t>
-  </si>
-  <si>
-    <t>emilyd@example.com</t>
-  </si>
-  <si>
-    <t>Not Interested</t>
-  </si>
-  <si>
-    <t>David Wilson</t>
-  </si>
-  <si>
-    <t>654 Cedar St, City E</t>
-  </si>
-  <si>
-    <t>567-890-1234</t>
-  </si>
-  <si>
-    <t>davidw@example.com</t>
-  </si>
-  <si>
-    <t>Sarah Brown</t>
-  </si>
-  <si>
-    <t>987 Maple St, City F</t>
-  </si>
-  <si>
-    <t>678-901-2345</t>
-  </si>
-  <si>
-    <t>sarahb@example.com</t>
-  </si>
-  <si>
-    <t>Robert Garcia</t>
-  </si>
-  <si>
-    <t>135 Willow St, City G</t>
-  </si>
-  <si>
-    <t>789-012-3456</t>
-  </si>
-  <si>
-    <t>robertg@example.com</t>
-  </si>
-  <si>
-    <t>Laura Martinez</t>
-  </si>
-  <si>
-    <t>246 Aspen St, City H</t>
-  </si>
-  <si>
-    <t>890-123-4567</t>
-  </si>
-  <si>
-    <t>lauram@example.com</t>
-  </si>
-  <si>
-    <t>James Rodriguez</t>
-  </si>
-  <si>
-    <t>357 Redwood St, City I</t>
-  </si>
-  <si>
-    <t>901-234-5678</t>
-  </si>
-  <si>
-    <t>jamesr@example.com</t>
-  </si>
-  <si>
-    <t>Mary Hernandez</t>
-  </si>
-  <si>
-    <t>468 Sycamore St, City J</t>
-  </si>
-  <si>
-    <t>012-345-6789</t>
-  </si>
-  <si>
-    <t>maryh@example.com</t>
-  </si>
-  <si>
-    <t>Daniel Lee</t>
-  </si>
-  <si>
-    <t>579 Fir St, City K</t>
-  </si>
-  <si>
-    <t>daniell@example.com</t>
-  </si>
-  <si>
-    <t>Lisa Clark</t>
-  </si>
-  <si>
-    <t>680 Spruce St, City L</t>
-  </si>
-  <si>
-    <t>lisac@example.com</t>
-  </si>
-  <si>
-    <t>Mark Lewis</t>
-  </si>
-  <si>
-    <t>791 Walnut St, City M</t>
-  </si>
-  <si>
-    <t>markl@example.com</t>
-  </si>
-  <si>
-    <t>Karen Walker</t>
-  </si>
-  <si>
-    <t>902 Palm St, City N</t>
-  </si>
-  <si>
-    <t>karenw@example.com</t>
-  </si>
-  <si>
-    <t>Paul Young</t>
-  </si>
-  <si>
-    <t>103 Cypress St, City O</t>
-  </si>
-  <si>
-    <t>pauly@example.com</t>
-  </si>
-  <si>
-    <t>Linda King</t>
-  </si>
-  <si>
-    <t>214 Beech St, City P</t>
-  </si>
-  <si>
-    <t>lindak@example.com</t>
-  </si>
-  <si>
-    <t>Kevin Wright</t>
-  </si>
-  <si>
-    <t>325 Poplar St, City Q</t>
-  </si>
-  <si>
-    <t>kevinw@example.com</t>
-  </si>
-  <si>
-    <t>Donna Scott</t>
-  </si>
-  <si>
-    <t>436 Alder St, City R</t>
-  </si>
-  <si>
-    <t>donnas@example.com</t>
-  </si>
-  <si>
-    <t>Brian Adams</t>
-  </si>
-  <si>
-    <t>547 Dogwood St, City S</t>
-  </si>
-  <si>
-    <t>briana@example.com</t>
-  </si>
-  <si>
-    <t>Nancy Perez</t>
-  </si>
-  <si>
-    <t>658 Elm St, City T</t>
-  </si>
-  <si>
-    <t>nancyp@example.com</t>
-  </si>
-  <si>
-    <t>mith@example.com</t>
   </si>
 </sst>
 </file>
@@ -701,7 +701,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD1048576"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,39 +719,39 @@
     <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -759,22 +759,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="F2" s="2">
         <v>28</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H2" s="3">
         <v>45474</v>
@@ -783,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K2" s="2">
         <v>85</v>
@@ -794,22 +794,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F3" s="2">
         <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3" s="3">
         <v>45475</v>
@@ -818,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K3" s="2">
         <v>78</v>
@@ -829,22 +829,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F4" s="2">
         <v>41</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" s="3">
         <v>45476</v>
@@ -853,7 +853,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K4" s="2">
         <v>92</v>
@@ -864,22 +864,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F5" s="2">
         <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H5" s="3">
         <v>45477</v>
@@ -888,7 +888,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K5" s="2">
         <v>60</v>
@@ -899,22 +899,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F6" s="2">
         <v>37</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6" s="3">
         <v>45478</v>
@@ -923,7 +923,7 @@
         <v>5</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K6" s="2">
         <v>80</v>
@@ -934,22 +934,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="F7" s="2">
         <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H7" s="3">
         <v>45479</v>
@@ -958,7 +958,7 @@
         <v>6</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K7" s="2">
         <v>88</v>
@@ -969,22 +969,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="F8" s="2">
         <v>45</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" s="3">
         <v>45480</v>
@@ -993,7 +993,7 @@
         <v>7</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K8" s="2">
         <v>95</v>
@@ -1004,22 +1004,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="F9" s="2">
         <v>31</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H9" s="3">
         <v>45481</v>
@@ -1028,7 +1028,7 @@
         <v>8</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K9" s="2">
         <v>76</v>
@@ -1039,22 +1039,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="F10" s="2">
         <v>50</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H10" s="3">
         <v>45482</v>
@@ -1063,7 +1063,7 @@
         <v>9</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K10" s="2">
         <v>89</v>
@@ -1074,22 +1074,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="F11" s="2">
         <v>36</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H11" s="3">
         <v>45483</v>
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K11" s="2">
         <v>58</v>
@@ -1109,22 +1109,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="F12" s="2">
         <v>33</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H12" s="3">
         <v>45484</v>
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K12" s="2">
         <v>87</v>
@@ -1144,22 +1144,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="F13" s="2">
         <v>40</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H13" s="3">
         <v>45485</v>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K13" s="2">
         <v>82</v>
@@ -1179,22 +1179,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F14" s="2">
         <v>27</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H14" s="3">
         <v>45486</v>
@@ -1203,7 +1203,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K14" s="2">
         <v>91</v>
@@ -1214,22 +1214,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F15" s="2">
         <v>38</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H15" s="3">
         <v>45487</v>
@@ -1238,7 +1238,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K15" s="2">
         <v>65</v>
@@ -1249,22 +1249,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F16" s="2">
         <v>42</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H16" s="3">
         <v>45488</v>
@@ -1273,7 +1273,7 @@
         <v>5</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K16" s="2">
         <v>90</v>
@@ -1284,22 +1284,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="F17" s="2">
         <v>35</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H17" s="3">
         <v>45489</v>
@@ -1308,7 +1308,7 @@
         <v>6</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K17" s="2">
         <v>79</v>
@@ -1319,22 +1319,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="F18" s="2">
         <v>44</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H18" s="3">
         <v>45490</v>
@@ -1343,7 +1343,7 @@
         <v>7</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K18" s="2">
         <v>93</v>
@@ -1354,22 +1354,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F19" s="2">
         <v>39</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H19" s="3">
         <v>45491</v>
@@ -1378,7 +1378,7 @@
         <v>8</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K19" s="2">
         <v>62</v>
@@ -1389,22 +1389,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F20" s="2">
         <v>48</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H20" s="3">
         <v>45492</v>
@@ -1413,7 +1413,7 @@
         <v>9</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K20" s="2">
         <v>85</v>
@@ -1424,22 +1424,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F21" s="2">
         <v>32</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H21" s="3">
         <v>45493</v>
@@ -1448,7 +1448,7 @@
         <v>10</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K21" s="2">
         <v>84</v>

--- a/template Excel/MKT/Leads.xlsx
+++ b/template Excel/MKT/Leads.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\MKT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D065C8FF-C206-4121-AF35-A0357CF7F4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A49A7A-9462-43E5-9A46-53E0794AB995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{37B37724-5899-41C8-BAB9-439CE777DFB8}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{37B37724-5899-41C8-BAB9-439CE777DFB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -698,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86CF5BF3-20CF-4993-9AAC-955D1BA524C0}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,7 +713,7 @@
     <col min="5" max="5" width="23.85546875" customWidth="1"/>
     <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
@@ -777,7 +777,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="3">
-        <v>45474</v>
+        <v>44927</v>
       </c>
       <c r="I2" s="2">
         <v>1</v>
@@ -812,7 +812,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="3">
-        <v>45475</v>
+        <v>44939</v>
       </c>
       <c r="I3" s="2">
         <v>2</v>
@@ -847,7 +847,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="3">
-        <v>45476</v>
+        <v>44951</v>
       </c>
       <c r="I4" s="2">
         <v>3</v>
@@ -882,7 +882,7 @@
         <v>18</v>
       </c>
       <c r="H5" s="3">
-        <v>45477</v>
+        <v>44963</v>
       </c>
       <c r="I5" s="2">
         <v>4</v>
@@ -917,7 +917,7 @@
         <v>13</v>
       </c>
       <c r="H6" s="3">
-        <v>45478</v>
+        <v>44975</v>
       </c>
       <c r="I6" s="2">
         <v>5</v>
@@ -952,7 +952,7 @@
         <v>18</v>
       </c>
       <c r="H7" s="3">
-        <v>45479</v>
+        <v>44987</v>
       </c>
       <c r="I7" s="2">
         <v>6</v>
@@ -987,7 +987,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="3">
-        <v>45480</v>
+        <v>44999</v>
       </c>
       <c r="I8" s="2">
         <v>7</v>
@@ -1022,7 +1022,7 @@
         <v>18</v>
       </c>
       <c r="H9" s="3">
-        <v>45481</v>
+        <v>45011</v>
       </c>
       <c r="I9" s="2">
         <v>8</v>
@@ -1057,7 +1057,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="3">
-        <v>45482</v>
+        <v>45023</v>
       </c>
       <c r="I10" s="2">
         <v>9</v>
@@ -1092,7 +1092,7 @@
         <v>18</v>
       </c>
       <c r="H11" s="3">
-        <v>45483</v>
+        <v>45035</v>
       </c>
       <c r="I11" s="2">
         <v>1</v>
@@ -1127,7 +1127,7 @@
         <v>13</v>
       </c>
       <c r="H12" s="3">
-        <v>45484</v>
+        <v>45047</v>
       </c>
       <c r="I12" s="2">
         <v>1</v>
@@ -1162,7 +1162,7 @@
         <v>18</v>
       </c>
       <c r="H13" s="3">
-        <v>45485</v>
+        <v>45059</v>
       </c>
       <c r="I13" s="2">
         <v>2</v>
@@ -1197,7 +1197,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="3">
-        <v>45486</v>
+        <v>45071</v>
       </c>
       <c r="I14" s="2">
         <v>3</v>
@@ -1232,7 +1232,7 @@
         <v>18</v>
       </c>
       <c r="H15" s="3">
-        <v>45487</v>
+        <v>45083</v>
       </c>
       <c r="I15" s="2">
         <v>4</v>
@@ -1267,7 +1267,7 @@
         <v>13</v>
       </c>
       <c r="H16" s="3">
-        <v>45488</v>
+        <v>45095</v>
       </c>
       <c r="I16" s="2">
         <v>5</v>
@@ -1302,7 +1302,7 @@
         <v>18</v>
       </c>
       <c r="H17" s="3">
-        <v>45489</v>
+        <v>45107</v>
       </c>
       <c r="I17" s="2">
         <v>6</v>
@@ -1337,7 +1337,7 @@
         <v>13</v>
       </c>
       <c r="H18" s="3">
-        <v>45490</v>
+        <v>45119</v>
       </c>
       <c r="I18" s="2">
         <v>7</v>
@@ -1372,7 +1372,7 @@
         <v>18</v>
       </c>
       <c r="H19" s="3">
-        <v>45491</v>
+        <v>45131</v>
       </c>
       <c r="I19" s="2">
         <v>8</v>
@@ -1407,7 +1407,7 @@
         <v>13</v>
       </c>
       <c r="H20" s="3">
-        <v>45492</v>
+        <v>45143</v>
       </c>
       <c r="I20" s="2">
         <v>9</v>
@@ -1442,7 +1442,7 @@
         <v>18</v>
       </c>
       <c r="H21" s="3">
-        <v>45493</v>
+        <v>45155</v>
       </c>
       <c r="I21" s="2">
         <v>10</v>
@@ -1452,11 +1452,1098 @@
       </c>
       <c r="K21" s="2">
         <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="2">
+        <v>28</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="3">
+        <v>45167</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="2">
+        <v>34</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="3">
+        <v>45179</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="2">
+        <v>41</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="3">
+        <v>45191</v>
+      </c>
+      <c r="I24" s="2">
+        <v>3</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="2">
+        <v>26</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="3">
+        <v>45203</v>
+      </c>
+      <c r="I25" s="2">
+        <v>4</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="2">
+        <v>37</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="3">
+        <v>45215</v>
+      </c>
+      <c r="I26" s="2">
+        <v>5</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="2">
+        <v>29</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="3">
+        <v>45227</v>
+      </c>
+      <c r="I27" s="2">
+        <v>6</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="2">
+        <v>45</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="3">
+        <v>45239</v>
+      </c>
+      <c r="I28" s="2">
+        <v>7</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="2">
+        <v>31</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="3">
+        <v>45251</v>
+      </c>
+      <c r="I29" s="2">
+        <v>8</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="2">
+        <v>50</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="3">
+        <v>45263</v>
+      </c>
+      <c r="I30" s="2">
+        <v>9</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="2">
+        <v>36</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="3">
+        <v>45275</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="2">
+        <v>33</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="3">
+        <v>45287</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="2">
+        <v>40</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="3">
+        <v>45299</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="2">
+        <v>28</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="3">
+        <v>45311</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="2">
+        <v>34</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="3">
+        <v>45323</v>
+      </c>
+      <c r="I35" s="2">
+        <v>2</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="2">
+        <v>41</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="3">
+        <v>45335</v>
+      </c>
+      <c r="I36" s="2">
+        <v>3</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="2">
+        <v>26</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="3">
+        <v>45347</v>
+      </c>
+      <c r="I37" s="2">
+        <v>4</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="2">
+        <v>37</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="3">
+        <v>45359</v>
+      </c>
+      <c r="I38" s="2">
+        <v>5</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="2">
+        <v>29</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="3">
+        <v>45371</v>
+      </c>
+      <c r="I39" s="2">
+        <v>6</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="2">
+        <v>45</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="3">
+        <v>45383</v>
+      </c>
+      <c r="I40" s="2">
+        <v>7</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" s="2">
+        <v>31</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="3">
+        <v>45395</v>
+      </c>
+      <c r="I41" s="2">
+        <v>8</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="2">
+        <v>50</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="3">
+        <v>45407</v>
+      </c>
+      <c r="I42" s="2">
+        <v>9</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="2">
+        <v>36</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="3">
+        <v>45419</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="2">
+        <v>33</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="3">
+        <v>45431</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="2">
+        <v>40</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="3">
+        <v>45443</v>
+      </c>
+      <c r="I45" s="2">
+        <v>2</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" s="2">
+        <v>27</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="3">
+        <v>45455</v>
+      </c>
+      <c r="I46" s="2">
+        <v>3</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="2">
+        <v>38</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="3">
+        <v>45467</v>
+      </c>
+      <c r="I47" s="2">
+        <v>4</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F48" s="2">
+        <v>42</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="3">
+        <v>45479</v>
+      </c>
+      <c r="I48" s="2">
+        <v>5</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" s="2">
+        <v>35</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="3">
+        <v>45491</v>
+      </c>
+      <c r="I49" s="2">
+        <v>6</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" s="2">
+        <v>44</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="3">
+        <v>45503</v>
+      </c>
+      <c r="I50" s="2">
+        <v>7</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F51" s="2">
+        <v>39</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="3">
+        <v>45515</v>
+      </c>
+      <c r="I51" s="2">
+        <v>8</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52" s="2">
+        <v>48</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="3">
+        <v>45527</v>
+      </c>
+      <c r="I52" s="2">
+        <v>9</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" s="2">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{98FE7C64-2235-4BE6-A139-D7530B275174}"/>
+    <hyperlink ref="E23" r:id="rId2" xr:uid="{D05642F1-9B82-47D2-8588-2DDC8C53BC24}"/>
+    <hyperlink ref="E35" r:id="rId3" xr:uid="{DA15C8D3-F366-4602-996B-D7321C3050BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
